--- a/2022-11.11/SBBI Data for Capital Markets (2022_11_11).xlsx
+++ b/2022-11.11/SBBI Data for Capital Markets (2022_11_11).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuao/Documents/PSTAT296A/pstat296/2022-11.11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D42792-13B9-2E42-8765-695915BBC5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121ED2A7-A174-1D43-BEEA-D51918BE011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1460" windowWidth="24120" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1460" windowWidth="24120" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processed" sheetId="3" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J1169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="D700" sqref="D700"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -764,7 +764,6 @@
         <v>3.038346121959223E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:10"/>
     <row r="8" spans="2:10">
       <c r="C8" s="3" t="s">
         <v>7</v>
